--- a/DDAf_2020_tableau_annexe_Tab04.xlsx
+++ b/DDAf_2020_tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="201">
   <si>
     <t>Tableau 4: Taux de croissance annuel de la population, 1990-2025</t>
   </si>
@@ -142,7 +142,7 @@
     <t>2025</t>
   </si>
   <si>
-    <t>Croissance annuelle moyenne projetée, 2021-25</t>
+    <t>Croissance annuelle moyenne projetée, 2020-25</t>
   </si>
   <si>
     <t>AGO</t>
@@ -598,7 +598,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraîbes"</t>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
@@ -610,7 +610,97 @@
     <t>Source : Base de données des perspectives de l'économie mondiale du FMI, octobre 2020.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -623,7 +713,7 @@
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +836,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -924,9 +1023,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -948,7 +1049,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -985,7 +1088,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -995,7 +1100,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1005,7 +1112,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1039,13 +1148,19 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1332,15 +1447,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM105"/>
+  <dimension ref="A1:AM111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" style="49" customWidth="1"/>
     <col min="4" max="16" width="4.7265625" customWidth="1"/>
     <col min="17" max="17" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="38" width="4.7265625" customWidth="1"/>
@@ -12782,230 +12897,562 @@
       <c r="AM98" s="32"/>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="45"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="45"/>
-      <c r="P99" s="45"/>
-      <c r="Q99" s="45"/>
-      <c r="R99" s="45"/>
-      <c r="S99" s="45"/>
-      <c r="T99" s="45"/>
-      <c r="U99" s="45"/>
-      <c r="V99" s="45"/>
-      <c r="W99" s="45"/>
-      <c r="X99" s="45"/>
-      <c r="Y99" s="45"/>
-      <c r="Z99" s="45"/>
-      <c r="AA99" s="45"/>
-      <c r="AB99" s="45"/>
-      <c r="AC99" s="45"/>
-      <c r="AD99" s="45"/>
-      <c r="AE99" s="45"/>
-      <c r="AF99" s="45"/>
-      <c r="AG99" s="45"/>
-      <c r="AH99" s="45"/>
-      <c r="AI99" s="45"/>
-      <c r="AJ99" s="45"/>
-      <c r="AK99" s="45"/>
-      <c r="AL99" s="45"/>
-      <c r="AM99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="46"/>
+      <c r="Q99" s="46"/>
+      <c r="R99" s="46"/>
+      <c r="S99" s="46"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="46"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="46"/>
+      <c r="Y99" s="46"/>
+      <c r="Z99" s="46"/>
+      <c r="AA99" s="46"/>
+      <c r="AB99" s="46"/>
+      <c r="AC99" s="46"/>
+      <c r="AD99" s="46"/>
+      <c r="AE99" s="46"/>
+      <c r="AF99" s="46"/>
+      <c r="AG99" s="46"/>
+      <c r="AH99" s="46"/>
+      <c r="AI99" s="46"/>
+      <c r="AJ99" s="46"/>
+      <c r="AK99" s="46"/>
+      <c r="AL99" s="46"/>
+      <c r="AM99" s="46"/>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
-      <c r="Q100" s="45"/>
-      <c r="R100" s="45"/>
-      <c r="S100" s="45"/>
-      <c r="T100" s="45"/>
-      <c r="U100" s="45"/>
-      <c r="V100" s="45"/>
-      <c r="W100" s="45"/>
-      <c r="X100" s="45"/>
-      <c r="Y100" s="45"/>
-      <c r="Z100" s="45"/>
-      <c r="AA100" s="45"/>
-      <c r="AB100" s="45"/>
-      <c r="AC100" s="45"/>
-      <c r="AD100" s="45"/>
-      <c r="AE100" s="45"/>
-      <c r="AF100" s="45"/>
-      <c r="AG100" s="45"/>
-      <c r="AH100" s="45"/>
-      <c r="AI100" s="45"/>
-      <c r="AJ100" s="45"/>
-      <c r="AK100" s="45"/>
-      <c r="AL100" s="45"/>
-      <c r="AM100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="46"/>
+      <c r="Y100" s="46"/>
+      <c r="Z100" s="46"/>
+      <c r="AA100" s="46"/>
+      <c r="AB100" s="46"/>
+      <c r="AC100" s="46"/>
+      <c r="AD100" s="46"/>
+      <c r="AE100" s="46"/>
+      <c r="AF100" s="46"/>
+      <c r="AG100" s="46"/>
+      <c r="AH100" s="46"/>
+      <c r="AI100" s="46"/>
+      <c r="AJ100" s="46"/>
+      <c r="AK100" s="46"/>
+      <c r="AL100" s="46"/>
+      <c r="AM100" s="46"/>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="45"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
-      <c r="Q101" s="45"/>
-      <c r="R101" s="45"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="45"/>
-      <c r="U101" s="45"/>
-      <c r="V101" s="45"/>
-      <c r="W101" s="45"/>
-      <c r="X101" s="45"/>
-      <c r="Y101" s="45"/>
-      <c r="Z101" s="45"/>
-      <c r="AA101" s="45"/>
-      <c r="AB101" s="45"/>
-      <c r="AC101" s="45"/>
-      <c r="AD101" s="45"/>
-      <c r="AE101" s="45"/>
-      <c r="AF101" s="45"/>
-      <c r="AG101" s="45"/>
-      <c r="AH101" s="45"/>
-      <c r="AI101" s="45"/>
-      <c r="AJ101" s="45"/>
-      <c r="AK101" s="45"/>
-      <c r="AL101" s="45"/>
-      <c r="AM101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="46"/>
+      <c r="Q101" s="46"/>
+      <c r="R101" s="46"/>
+      <c r="S101" s="46"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="46"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="46"/>
+      <c r="X101" s="46"/>
+      <c r="Y101" s="46"/>
+      <c r="Z101" s="46"/>
+      <c r="AA101" s="46"/>
+      <c r="AB101" s="46"/>
+      <c r="AC101" s="46"/>
+      <c r="AD101" s="46"/>
+      <c r="AE101" s="46"/>
+      <c r="AF101" s="46"/>
+      <c r="AG101" s="46"/>
+      <c r="AH101" s="46"/>
+      <c r="AI101" s="46"/>
+      <c r="AJ101" s="46"/>
+      <c r="AK101" s="46"/>
+      <c r="AL101" s="46"/>
+      <c r="AM101" s="46"/>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
-      <c r="Q102" s="45"/>
-      <c r="R102" s="45"/>
-      <c r="S102" s="45"/>
-      <c r="T102" s="45"/>
-      <c r="U102" s="45"/>
-      <c r="V102" s="45"/>
-      <c r="W102" s="45"/>
-      <c r="X102" s="45"/>
-      <c r="Y102" s="45"/>
-      <c r="Z102" s="45"/>
-      <c r="AA102" s="45"/>
-      <c r="AB102" s="45"/>
-      <c r="AC102" s="45"/>
-      <c r="AD102" s="45"/>
-      <c r="AE102" s="45"/>
-      <c r="AF102" s="45"/>
-      <c r="AG102" s="45"/>
-      <c r="AH102" s="45"/>
-      <c r="AI102" s="45"/>
-      <c r="AJ102" s="45"/>
-      <c r="AK102" s="45"/>
-      <c r="AL102" s="45"/>
-      <c r="AM102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="46"/>
+      <c r="R102" s="46"/>
+      <c r="S102" s="46"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="46"/>
+      <c r="V102" s="46"/>
+      <c r="W102" s="46"/>
+      <c r="X102" s="46"/>
+      <c r="Y102" s="46"/>
+      <c r="Z102" s="46"/>
+      <c r="AA102" s="46"/>
+      <c r="AB102" s="46"/>
+      <c r="AC102" s="46"/>
+      <c r="AD102" s="46"/>
+      <c r="AE102" s="46"/>
+      <c r="AF102" s="46"/>
+      <c r="AG102" s="46"/>
+      <c r="AH102" s="46"/>
+      <c r="AI102" s="46"/>
+      <c r="AJ102" s="46"/>
+      <c r="AK102" s="46"/>
+      <c r="AL102" s="46"/>
+      <c r="AM102" s="46"/>
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="45"/>
-      <c r="M103" s="45"/>
-      <c r="N103" s="45"/>
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
-      <c r="Q103" s="45"/>
-      <c r="R103" s="45"/>
-      <c r="S103" s="45"/>
-      <c r="T103" s="45"/>
-      <c r="U103" s="45"/>
-      <c r="V103" s="45"/>
-      <c r="W103" s="45"/>
-      <c r="X103" s="45"/>
-      <c r="Y103" s="45"/>
-      <c r="Z103" s="45"/>
-      <c r="AA103" s="45"/>
-      <c r="AB103" s="45"/>
-      <c r="AC103" s="45"/>
-      <c r="AD103" s="45"/>
-      <c r="AE103" s="45"/>
-      <c r="AF103" s="45"/>
-      <c r="AG103" s="45"/>
-      <c r="AH103" s="45"/>
-      <c r="AI103" s="45"/>
-      <c r="AJ103" s="45"/>
-      <c r="AK103" s="45"/>
-      <c r="AL103" s="45"/>
-      <c r="AM103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="46"/>
+      <c r="R103" s="46"/>
+      <c r="S103" s="46"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="46"/>
+      <c r="V103" s="46"/>
+      <c r="W103" s="46"/>
+      <c r="X103" s="46"/>
+      <c r="Y103" s="46"/>
+      <c r="Z103" s="46"/>
+      <c r="AA103" s="46"/>
+      <c r="AB103" s="46"/>
+      <c r="AC103" s="46"/>
+      <c r="AD103" s="46"/>
+      <c r="AE103" s="46"/>
+      <c r="AF103" s="46"/>
+      <c r="AG103" s="46"/>
+      <c r="AH103" s="46"/>
+      <c r="AI103" s="46"/>
+      <c r="AJ103" s="46"/>
+      <c r="AK103" s="46"/>
+      <c r="AL103" s="46"/>
+      <c r="AM103" s="46"/>
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B104" s="45"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="46"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="46"/>
+      <c r="S104" s="46"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="46"/>
+      <c r="V104" s="46"/>
+      <c r="W104" s="46"/>
+      <c r="X104" s="46"/>
+      <c r="Y104" s="46"/>
+      <c r="Z104" s="46"/>
+      <c r="AA104" s="46"/>
+      <c r="AB104" s="46"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="46"/>
+      <c r="AE104" s="46"/>
+      <c r="AF104" s="46"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="46"/>
+      <c r="AI104" s="46"/>
+      <c r="AJ104" s="46"/>
+      <c r="AK104" s="46"/>
+      <c r="AL104" s="46"/>
+      <c r="AM104" s="46"/>
     </row>
     <row r="105" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="47" t="s">
         <v>195</v>
       </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="46"/>
+      <c r="P105" s="46"/>
+      <c r="Q105" s="46"/>
+      <c r="R105" s="46"/>
+      <c r="S105" s="46"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="46"/>
+      <c r="V105" s="46"/>
+      <c r="W105" s="46"/>
+      <c r="X105" s="46"/>
+      <c r="Y105" s="46"/>
+      <c r="Z105" s="46"/>
+      <c r="AA105" s="46"/>
+      <c r="AB105" s="46"/>
+      <c r="AC105" s="46"/>
+      <c r="AD105" s="46"/>
+      <c r="AE105" s="46"/>
+      <c r="AF105" s="46"/>
+      <c r="AG105" s="46"/>
+      <c r="AH105" s="46"/>
+      <c r="AI105" s="46"/>
+      <c r="AJ105" s="46"/>
+      <c r="AK105" s="46"/>
+      <c r="AL105" s="46"/>
+      <c r="AM105" s="46"/>
+    </row>
+    <row r="106" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="47"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="46"/>
+      <c r="M106" s="46"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="46"/>
+      <c r="P106" s="46"/>
+      <c r="Q106" s="46"/>
+      <c r="R106" s="46"/>
+      <c r="S106" s="46"/>
+      <c r="T106" s="46"/>
+      <c r="U106" s="46"/>
+      <c r="V106" s="46"/>
+      <c r="W106" s="46"/>
+      <c r="X106" s="46"/>
+      <c r="Y106" s="46"/>
+      <c r="Z106" s="46"/>
+      <c r="AA106" s="46"/>
+      <c r="AB106" s="46"/>
+      <c r="AC106" s="46"/>
+      <c r="AD106" s="46"/>
+      <c r="AE106" s="46"/>
+      <c r="AF106" s="46"/>
+      <c r="AG106" s="46"/>
+      <c r="AH106" s="46"/>
+      <c r="AI106" s="46"/>
+      <c r="AJ106" s="46"/>
+      <c r="AK106" s="46"/>
+      <c r="AL106" s="46"/>
+      <c r="AM106" s="46"/>
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B107" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="46"/>
+      <c r="R107" s="46"/>
+      <c r="S107" s="46"/>
+      <c r="T107" s="46"/>
+      <c r="U107" s="46"/>
+      <c r="V107" s="46"/>
+      <c r="W107" s="46"/>
+      <c r="X107" s="46"/>
+      <c r="Y107" s="46"/>
+      <c r="Z107" s="46"/>
+      <c r="AA107" s="46"/>
+      <c r="AB107" s="46"/>
+      <c r="AC107" s="46"/>
+      <c r="AD107" s="46"/>
+      <c r="AE107" s="46"/>
+      <c r="AF107" s="46"/>
+      <c r="AG107" s="46"/>
+      <c r="AH107" s="46"/>
+      <c r="AI107" s="46"/>
+      <c r="AJ107" s="46"/>
+      <c r="AK107" s="46"/>
+      <c r="AL107" s="46"/>
+      <c r="AM107" s="46"/>
+    </row>
+    <row r="108" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B108" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="46"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
+      <c r="R108" s="46"/>
+      <c r="S108" s="46"/>
+      <c r="T108" s="46"/>
+      <c r="U108" s="46"/>
+      <c r="V108" s="46"/>
+      <c r="W108" s="46"/>
+      <c r="X108" s="46"/>
+      <c r="Y108" s="46"/>
+      <c r="Z108" s="46"/>
+      <c r="AA108" s="46"/>
+      <c r="AB108" s="46"/>
+      <c r="AC108" s="46"/>
+      <c r="AD108" s="46"/>
+      <c r="AE108" s="46"/>
+      <c r="AF108" s="46"/>
+      <c r="AG108" s="46"/>
+      <c r="AH108" s="46"/>
+      <c r="AI108" s="46"/>
+      <c r="AJ108" s="46"/>
+      <c r="AK108" s="46"/>
+      <c r="AL108" s="46"/>
+      <c r="AM108" s="46"/>
+    </row>
+    <row r="109" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B109" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="46"/>
+      <c r="S109" s="46"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="46"/>
+      <c r="V109" s="46"/>
+      <c r="W109" s="46"/>
+      <c r="X109" s="46"/>
+      <c r="Y109" s="46"/>
+      <c r="Z109" s="46"/>
+      <c r="AA109" s="46"/>
+      <c r="AB109" s="46"/>
+      <c r="AC109" s="46"/>
+      <c r="AD109" s="46"/>
+      <c r="AE109" s="46"/>
+      <c r="AF109" s="46"/>
+      <c r="AG109" s="46"/>
+      <c r="AH109" s="46"/>
+      <c r="AI109" s="46"/>
+      <c r="AJ109" s="46"/>
+      <c r="AK109" s="46"/>
+      <c r="AL109" s="46"/>
+      <c r="AM109" s="46"/>
+    </row>
+    <row r="110" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B110" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="46"/>
+      <c r="S110" s="46"/>
+      <c r="T110" s="46"/>
+      <c r="U110" s="46"/>
+      <c r="V110" s="46"/>
+      <c r="W110" s="46"/>
+      <c r="X110" s="46"/>
+      <c r="Y110" s="46"/>
+      <c r="Z110" s="46"/>
+      <c r="AA110" s="46"/>
+      <c r="AB110" s="46"/>
+      <c r="AC110" s="46"/>
+      <c r="AD110" s="46"/>
+      <c r="AE110" s="46"/>
+      <c r="AF110" s="46"/>
+      <c r="AG110" s="46"/>
+      <c r="AH110" s="46"/>
+      <c r="AI110" s="46"/>
+      <c r="AJ110" s="46"/>
+      <c r="AK110" s="46"/>
+      <c r="AL110" s="46"/>
+      <c r="AM110" s="46"/>
+    </row>
+    <row r="111" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B111" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="46"/>
+      <c r="R111" s="46"/>
+      <c r="S111" s="46"/>
+      <c r="T111" s="46"/>
+      <c r="U111" s="46"/>
+      <c r="V111" s="46"/>
+      <c r="W111" s="46"/>
+      <c r="X111" s="46"/>
+      <c r="Y111" s="46"/>
+      <c r="Z111" s="46"/>
+      <c r="AA111" s="46"/>
+      <c r="AB111" s="46"/>
+      <c r="AC111" s="46"/>
+      <c r="AD111" s="46"/>
+      <c r="AE111" s="46"/>
+      <c r="AF111" s="46"/>
+      <c r="AG111" s="46"/>
+      <c r="AH111" s="46"/>
+      <c r="AI111" s="46"/>
+      <c r="AJ111" s="46"/>
+      <c r="AK111" s="46"/>
+      <c r="AL111" s="46"/>
+      <c r="AM111" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
+    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>